--- a/data/output/Pedido_Semana_07_13022026_semillas.xlsx
+++ b/data/output/Pedido_Semana_07_13022026_semillas.xlsx
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="6" t="n">
-        <v>82.2</v>
+        <v>41.1</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>49.32</v>
+        <v>24.66</v>
       </c>
       <c r="O3" s="7" t="inlineStr">
         <is>
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="P3" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R3" s="2" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="U3" s="8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" hidden="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>5306010001</t>
@@ -811,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>37.25</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>22.35</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="inlineStr">
         <is>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" hidden="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>5307010001</t>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="inlineStr">
         <is>
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="P5" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2" t="n">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3.95</v>
+        <v>7.9</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.37</v>
+        <v>4.74</v>
       </c>
       <c r="O6" s="7" t="inlineStr">
         <is>
@@ -993,13 +993,13 @@
         <v>0</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T6" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U6" s="8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1054,10 +1054,10 @@
         <v>1</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>9.6</v>
+        <v>1.2</v>
       </c>
       <c r="O7" s="7" t="inlineStr">
         <is>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="P7" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R7" s="2" t="n">
         <v>0</v>
@@ -1080,10 +1080,10 @@
         <v>0</v>
       </c>
       <c r="U7" s="8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" hidden="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>5401010006</t>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>5.93</v>
+        <v>0</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="inlineStr">
         <is>
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="P8" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="U8" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" hidden="1">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>5401010007</t>
@@ -1213,13 +1213,13 @@
         <v>1</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="inlineStr">
         <is>
@@ -1227,22 +1227,22 @@
         </is>
       </c>
       <c r="P9" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U9" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="N10" s="4" t="n">
         <v>5.93</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>3.56</v>
       </c>
       <c r="O10" s="7" t="inlineStr">
         <is>
@@ -1317,16 +1317,16 @@
         <v>0</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U10" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" hidden="1">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>5401010009</t>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="N11" s="4" t="n">
-        <v>3.42</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="inlineStr">
         <is>
@@ -1389,25 +1389,25 @@
         </is>
       </c>
       <c r="P11" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T11" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U11" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" hidden="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>5401010010</t>
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="6" t="n">
-        <v>5.93</v>
+        <v>0</v>
       </c>
       <c r="N12" s="4" t="n">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="inlineStr">
         <is>
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="P12" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="U12" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" hidden="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>5401010013</t>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="inlineStr">
         <is>
@@ -1551,10 +1551,10 @@
         </is>
       </c>
       <c r="P13" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2" t="n">
         <v>0</v>
@@ -1566,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="U13" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" hidden="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>5401010014</t>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N14" s="4" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="inlineStr">
         <is>
@@ -1632,10 +1632,10 @@
         </is>
       </c>
       <c r="P14" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1702,10 +1702,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N15" s="4" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="O15" s="7" t="inlineStr">
         <is>
@@ -1722,16 +1722,16 @@
         <v>0</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" hidden="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>5401010022</t>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="inlineStr">
         <is>
@@ -1794,22 +1794,22 @@
         </is>
       </c>
       <c r="P16" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1974,7 +1974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
           <t>5401010026</t>
@@ -2023,13 +2023,13 @@
         <v>2</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="P19" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="U19" s="8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" hidden="1">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>5401010030</t>
@@ -2104,13 +2104,13 @@
         <v>2</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="inlineStr">
         <is>
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="P20" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2188,10 +2188,10 @@
         <v>0</v>
       </c>
       <c r="M21" s="6" t="n">
-        <v>5.93</v>
+        <v>7.9</v>
       </c>
       <c r="N21" s="4" t="n">
-        <v>3.56</v>
+        <v>4.74</v>
       </c>
       <c r="O21" s="7" t="inlineStr">
         <is>
@@ -2208,16 +2208,16 @@
         <v>0</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" hidden="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
           <t>5402020011</t>
@@ -2269,10 +2269,10 @@
         <v>0</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N22" s="4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="inlineStr">
         <is>
@@ -2280,10 +2280,10 @@
         </is>
       </c>
       <c r="P22" s="3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" hidden="1">
       <c r="A23" s="2" t="inlineStr">
         <is>
           <t>5402030004</t>
@@ -2347,13 +2347,13 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="inlineStr">
         <is>
@@ -2361,10 +2361,10 @@
         </is>
       </c>
       <c r="P23" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R23" s="2" t="n">
         <v>0</v>
@@ -2376,10 +2376,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" hidden="1">
       <c r="A24" s="2" t="inlineStr">
         <is>
           <t>5402040008</t>
@@ -2428,13 +2428,13 @@
         <v>1</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="6" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="N24" s="4" t="n">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="inlineStr">
         <is>
@@ -2442,10 +2442,10 @@
         </is>
       </c>
       <c r="P24" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
@@ -2457,10 +2457,10 @@
         <v>0</v>
       </c>
       <c r="U24" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" hidden="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
           <t>5402050003</t>
@@ -2512,10 +2512,10 @@
         <v>-1</v>
       </c>
       <c r="M25" s="6" t="n">
-        <v>5.93</v>
+        <v>0</v>
       </c>
       <c r="N25" s="4" t="n">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="inlineStr">
         <is>
@@ -2523,10 +2523,10 @@
         </is>
       </c>
       <c r="P25" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R25" s="2" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2593,10 +2593,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N26" s="4" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="O26" s="7" t="inlineStr">
         <is>
@@ -2604,22 +2604,22 @@
         </is>
       </c>
       <c r="P26" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2674,10 +2674,10 @@
         <v>0</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>3.95</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="N27" s="4" t="n">
-        <v>2.37</v>
+        <v>5.93</v>
       </c>
       <c r="O27" s="7" t="inlineStr">
         <is>
@@ -2694,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T27" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U27" s="8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
           <t>5402050017</t>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="M29" s="6" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="N29" s="4" t="n">
-        <v>4.56</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="inlineStr">
         <is>
@@ -2847,22 +2847,22 @@
         </is>
       </c>
       <c r="P29" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="6" t="n">
         <v>7.9</v>
@@ -2946,7 +2946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>5402090017</t>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="inlineStr">
         <is>
@@ -3009,10 +3009,10 @@
         </is>
       </c>
       <c r="P31" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R31" s="2" t="n">
         <v>0</v>
@@ -3024,10 +3024,10 @@
         <v>0</v>
       </c>
       <c r="U31" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" hidden="1">
       <c r="A32" s="2" t="inlineStr">
         <is>
           <t>5403010002</t>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="6" t="n">
-        <v>13.95</v>
+        <v>0</v>
       </c>
       <c r="N32" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="inlineStr">
         <is>
@@ -3090,10 +3090,10 @@
         </is>
       </c>
       <c r="P32" s="3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3160,10 +3160,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N33" s="4" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="O33" s="7" t="inlineStr">
         <is>
@@ -3171,10 +3171,10 @@
         </is>
       </c>
       <c r="P33" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R33" s="2" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="U33" s="8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" hidden="1">
       <c r="A34" s="2" t="inlineStr">
         <is>
           <t>5404010008</t>
@@ -3241,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N34" s="4" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="inlineStr">
         <is>
@@ -3252,25 +3252,25 @@
         </is>
       </c>
       <c r="P34" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" hidden="1">
       <c r="A35" s="2" t="inlineStr">
         <is>
           <t>5404010013</t>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N35" s="4" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="inlineStr">
         <is>
@@ -3333,25 +3333,25 @@
         </is>
       </c>
       <c r="P35" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" hidden="1">
       <c r="A36" s="2" t="inlineStr">
         <is>
           <t>5404010016</t>
@@ -3403,10 +3403,10 @@
         <v>0</v>
       </c>
       <c r="M36" s="6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N36" s="4" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="inlineStr">
         <is>
@@ -3414,22 +3414,22 @@
         </is>
       </c>
       <c r="P36" s="3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3495,25 +3495,25 @@
         </is>
       </c>
       <c r="P37" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" s="8" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
           <t>5404010020</t>
@@ -3565,10 +3565,10 @@
         <v>-1</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O38" s="7" t="inlineStr">
         <is>
@@ -3576,10 +3576,10 @@
         </is>
       </c>
       <c r="P38" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>0</v>
@@ -3591,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="U38" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" hidden="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
           <t>5404010026</t>
@@ -3646,10 +3646,10 @@
         <v>0</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="O39" s="7" t="inlineStr">
         <is>
@@ -3657,10 +3657,10 @@
         </is>
       </c>
       <c r="P39" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R39" s="2" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40"/>
@@ -3690,7 +3690,7 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>137</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="C44" s="5" t="inlineStr">
         <is>
-          <t>391.35€</t>
+          <t>144.51€</t>
         </is>
       </c>
     </row>
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_07_13022026_semillas.xlsx
+++ b/data/output/Pedido_Semana_07_13022026_semillas.xlsx
@@ -471,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U53"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -924,12 +924,12 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>5401010003</t>
+          <t>5401010005</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>BELLA DE DIA</t>
+          <t>CALENDULA VARIADA</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -948,95 +948,95 @@
         </is>
       </c>
       <c r="F6" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G6" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>AUMENTAR 39%</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O6" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
+        </is>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" hidden="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>5401010006</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>CAMPANULA DOBLE, VARIADA 2011</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>semillas</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="n">
         <v>1.98</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H7" s="4" t="n">
         <v>0.79</v>
       </c>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 19%</t>
-        </is>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="O6" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
-        </is>
-      </c>
-      <c r="P6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="U6" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>5401010005</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>CALENDULA VARIADA</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>         </t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>        </t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>semillas</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>0.8</v>
-      </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>A</t>
@@ -1044,20 +1044,20 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 39%</t>
+          <t>REDUCIR 9%</t>
         </is>
       </c>
       <c r="K7" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>7</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="2" t="n">
         <v>0</v>
@@ -1080,18 +1080,18 @@
         <v>0</v>
       </c>
       <c r="U7" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" hidden="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>5401010006</t>
+          <t>5401010007</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>CAMPANULA DOBLE, VARIADA 2011</t>
+          <t>CAPUCHINA ENANA VARIADA</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -1113,205 +1113,205 @@
         <v>2</v>
       </c>
       <c r="G8" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 9%</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
+        </is>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U8" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>5401010008</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>CAPUCHINA TREPADORA</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>semillas</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="n">
         <v>1.98</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H9" s="4" t="n">
         <v>0.79</v>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>AUMENTAR 39%</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="O9" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
+        </is>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U9" s="8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" hidden="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>5401010009</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>CLAVEL DE POETA</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>semillas</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I10" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 9%</t>
-        </is>
-      </c>
-      <c r="K8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 5%</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
         </is>
       </c>
-      <c r="P8" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" hidden="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>5401010007</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>CAPUCHINA ENANA VARIADA</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>         </t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>        </t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>semillas</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I9" s="5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 9%</t>
-        </is>
-      </c>
-      <c r="K9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
-        </is>
-      </c>
-      <c r="P9" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T9" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="U9" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>5401010008</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>CAPUCHINA TREPADORA</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>         </t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>        </t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>semillas</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="I10" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>AUMENTAR 39%</t>
-        </is>
-      </c>
-      <c r="K10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="O10" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
-        </is>
-      </c>
       <c r="P10" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
@@ -1323,18 +1323,18 @@
         <v>2</v>
       </c>
       <c r="U10" s="8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" hidden="1">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>5401010009</t>
+          <t>5401010010</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>CLAVEL DE POETA</t>
+          <t>COLEUS HIBRIDO ARCO IRIS</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -1353,13 +1353,13 @@
         </is>
       </c>
       <c r="F11" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="I11" s="5" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 5%</t>
+          <t>AUMENTAR 39%</t>
         </is>
       </c>
       <c r="K11" s="3" t="n">
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="P11" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q11" s="3" t="n">
         <v>0</v>
@@ -1398,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T11" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U11" s="8" t="n">
         <v>0</v>
@@ -1410,12 +1410,12 @@
     <row r="12" hidden="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>5401010010</t>
+          <t>5401010013</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>COLEUS HIBRIDO ARCO IRIS</t>
+          <t>COSMOS DEL JAPON</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -1437,10 +1437,10 @@
         <v>2</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="I12" s="5" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 39%</t>
+          <t>REDUCIR 5%</t>
         </is>
       </c>
       <c r="K12" s="3" t="n">
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="P12" s="3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q12" s="3" t="n">
         <v>0</v>
@@ -1491,12 +1491,12 @@
     <row r="13" hidden="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>5401010013</t>
+          <t>5401010014</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>COSMOS DEL JAPON</t>
+          <t>CRISANTEMOS DE LOS JARDINES, VARIADOS 2011</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -1525,12 +1525,12 @@
       </c>
       <c r="I13" s="5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 5%</t>
+          <t>AUMENTAR 39%</t>
         </is>
       </c>
       <c r="K13" s="3" t="n">
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="P13" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q13" s="3" t="n">
         <v>0</v>
@@ -1569,15 +1569,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" hidden="1">
+    <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>5401010014</t>
+          <t>5401010019</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>CRISANTEMOS DE LOS JARDINES, VARIADOS 2011</t>
+          <t>GIRASOL ORNAMENTAL 2011</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="I14" s="5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N14" s="4" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O14" s="7" t="inlineStr">
         <is>
@@ -1632,33 +1632,33 @@
         </is>
       </c>
       <c r="P14" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" hidden="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>5401010019</t>
+          <t>5401010022</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>GIRASOL ORNAMENTAL 2011</t>
+          <t>MARGARITA GRANDE BLANCA</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -1687,140 +1687,140 @@
       </c>
       <c r="I15" s="5" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 9%</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
+        </is>
+      </c>
+      <c r="P15" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>5401010024</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>PENSAMIENTO GIGANTE SUIZO VARIADO</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>semillas</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I16" s="5" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>AUMENTAR 39%</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="N15" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O15" s="7" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>AUMENTAR 25%</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="N16" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="O16" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
         </is>
       </c>
-      <c r="P15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U15" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" hidden="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>5401010022</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>MARGARITA GRANDE BLANCA</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>         </t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>        </t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>semillas</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I16" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 9%</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
-        </is>
-      </c>
       <c r="P16" s="3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>5401010024</t>
+          <t>5401010025</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>PENSAMIENTO GIGANTE SUIZO VARIADO</t>
+          <t>PETUNIA DOBLE VARIADA</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -1839,17 +1839,17 @@
         </is>
       </c>
       <c r="F17" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="I17" s="5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1864,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="6" t="n">
-        <v>3.95</v>
+        <v>6</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>2.37</v>
+        <v>3.6</v>
       </c>
       <c r="O17" s="7" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R17" s="2" t="n">
         <v>0</v>
@@ -1890,18 +1890,18 @@
         <v>0</v>
       </c>
       <c r="U17" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" hidden="1">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>5401010025</t>
+          <t>5401010026</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>PETUNIA DOBLE VARIADA</t>
+          <t>PETUNIA PENDULA VARIADA 2011</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="F18" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G18" s="4" t="n">
         <v>2</v>
@@ -1930,25 +1930,25 @@
       </c>
       <c r="I18" s="5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 25%</t>
+          <t>REDUCIR 5%</t>
         </is>
       </c>
       <c r="K18" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="inlineStr">
         <is>
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="P18" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
@@ -1971,18 +1971,18 @@
         <v>0</v>
       </c>
       <c r="U18" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" hidden="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>5401010026</t>
+          <t>5401010030</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>PETUNIA PENDULA VARIADA 2011</t>
+          <t>ZINNIA FLOR DE DALIA</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="F19" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G19" s="4" t="n">
         <v>2</v>
@@ -2016,216 +2016,216 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
+          <t>AUMENTAR 39%</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
+        </is>
+      </c>
+      <c r="P19" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>5401010033</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>STRELITZIA AVE DEL PARAISO</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>semillas</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I20" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
           <t>REDUCIR 5%</t>
         </is>
       </c>
-      <c r="K19" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="inlineStr">
+      <c r="K20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="N20" s="4" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="O20" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
         </is>
       </c>
-      <c r="P19" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" hidden="1">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>5401010030</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>ZINNIA FLOR DE DALIA</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="P20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" s="8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" hidden="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>5402020011</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>PEPINO MARKETER ECOLOGICO</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>         </t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>        </t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>semillas</t>
         </is>
       </c>
-      <c r="F20" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G20" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" s="4" t="n">
+      <c r="F21" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="I20" s="5" t="inlineStr">
+      <c r="I21" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>AUMENTAR 39%</t>
-        </is>
-      </c>
-      <c r="K20" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="inlineStr">
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 9%</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
         </is>
       </c>
-      <c r="P20" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>5401010033</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>STRELITZIA AVE DEL PARAISO</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>         </t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>        </t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>semillas</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G21" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H21" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="I21" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 5%</t>
-        </is>
-      </c>
-      <c r="K21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="6" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="N21" s="4" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="O21" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
-        </is>
-      </c>
       <c r="P21" s="3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" hidden="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>5402020011</t>
+          <t>5402030004</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>PEPINO MARKETER ECOLOGICO</t>
+          <t>RABANITO REDONDO ROJO</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="F22" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>2</v>
@@ -2254,16 +2254,16 @@
       </c>
       <c r="I22" s="5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 9%</t>
+          <t>REDUCIR 19%</t>
         </is>
       </c>
       <c r="K22" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22" s="3" t="n">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P22" s="3" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="3" t="n">
         <v>0</v>
@@ -2301,12 +2301,12 @@
     <row r="23" hidden="1">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>5402030004</t>
+          <t>5402050003</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>RABANITO REDONDO ROJO</t>
+          <t>PIMIENTO DULCE ITALIANO</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -2325,150 +2325,150 @@
         </is>
       </c>
       <c r="F23" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H23" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I23" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 5%</t>
+        </is>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
+        </is>
+      </c>
+      <c r="P23" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>5402050011</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>TOMATE CORAZÓN DE BUEY 2017</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>semillas</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="I23" s="5" t="inlineStr">
+      <c r="I24" s="5" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
+      <c r="J24" s="2" t="inlineStr">
         <is>
           <t>REDUCIR 19%</t>
         </is>
       </c>
-      <c r="K23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="inlineStr">
+      <c r="K24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O24" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
         </is>
       </c>
-      <c r="P23" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" hidden="1">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>5402040008</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>LECHUGA REINA DE MAYO ECO</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>         </t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>        </t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>semillas</t>
-        </is>
-      </c>
-      <c r="F24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H24" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="I24" s="5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 40%</t>
-        </is>
-      </c>
-      <c r="K24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
-        </is>
-      </c>
       <c r="P24" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>5402050003</t>
+          <t>5402050012</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>PIMIENTO DULCE ITALIANO</t>
+          <t>TOMATE DE COLGAR</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -2497,25 +2497,25 @@
       </c>
       <c r="I25" s="5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 5%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K25" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="6" t="n">
-        <v>0</v>
+        <v>11.85</v>
       </c>
       <c r="N25" s="4" t="n">
-        <v>0</v>
+        <v>7.11</v>
       </c>
       <c r="O25" s="7" t="inlineStr">
         <is>
@@ -2523,33 +2523,33 @@
         </is>
       </c>
       <c r="P25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="Q25" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="R25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T25" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U25" s="8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>5402050011</t>
+          <t>5402050013</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>TOMATE CORAZÓN DE BUEY 2017</t>
+          <t>TOMATE MARMANDE CUARANTENO</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="I26" s="5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -2593,10 +2593,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N26" s="4" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="O26" s="7" t="inlineStr">
         <is>
@@ -2604,33 +2604,33 @@
         </is>
       </c>
       <c r="P26" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" hidden="1">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>5402050012</t>
+          <t>5402050017</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>TOMATE DE COLGAR</t>
+          <t>TOMATE PURPLE CALABASH</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -2649,22 +2649,22 @@
         </is>
       </c>
       <c r="F27" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="I27" s="5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 5%</t>
         </is>
       </c>
       <c r="K27" s="3" t="n">
@@ -2674,10 +2674,10 @@
         <v>0</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>9.880000000000001</v>
+        <v>0</v>
       </c>
       <c r="N27" s="4" t="n">
-        <v>5.93</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7" t="inlineStr">
         <is>
@@ -2685,33 +2685,33 @@
         </is>
       </c>
       <c r="P27" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T27" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U27" s="8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>5402050013</t>
+          <t>5402050018</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>TOMATE MARMANDE CUARANTENO</t>
+          <t>TOMATE ROMA</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -2730,13 +2730,13 @@
         </is>
       </c>
       <c r="F28" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="I28" s="5" t="inlineStr">
         <is>
@@ -2752,13 +2752,13 @@
         <v>1</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="6" t="n">
-        <v>6</v>
+        <v>3.95</v>
       </c>
       <c r="N28" s="4" t="n">
-        <v>3.6</v>
+        <v>2.37</v>
       </c>
       <c r="O28" s="7" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
@@ -2781,18 +2781,18 @@
         <v>0</v>
       </c>
       <c r="U28" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" hidden="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>5402050017</t>
+          <t>5402050024</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>TOMATE PURPLE CALABASH</t>
+          <t>BERENJENA LARGA NEGRA ECO</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -2811,29 +2811,29 @@
         </is>
       </c>
       <c r="F29" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" s="4" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="H29" s="4" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="I29" s="5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 5%</t>
+          <t>REDUCIR 19%</t>
         </is>
       </c>
       <c r="K29" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="6" t="n">
         <v>0</v>
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="P29" s="3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q29" s="3" t="n">
         <v>0</v>
@@ -2856,10 +2856,10 @@
         <v>0</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="8" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="F30" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G30" s="4" t="n">
         <v>1.98</v>
@@ -2911,16 +2911,16 @@
         </is>
       </c>
       <c r="K30" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>7.9</v>
+        <v>11.85</v>
       </c>
       <c r="N30" s="4" t="n">
-        <v>4.74</v>
+        <v>7.11</v>
       </c>
       <c r="O30" s="7" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" hidden="1">
@@ -3030,193 +3030,193 @@
     <row r="32" hidden="1">
       <c r="A32" s="2" t="inlineStr">
         <is>
+          <t>5402090018</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>MAIZ PALOMITAS</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>semillas</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H32" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I32" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 40%</t>
+        </is>
+      </c>
+      <c r="K32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
+        </is>
+      </c>
+      <c r="P32" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" hidden="1">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
           <t>5403010002</t>
         </is>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>TREBOL BLANCO ENANO 250GR</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>         </t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr">
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>        </t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>semillas</t>
         </is>
       </c>
-      <c r="F32" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" s="4" t="n">
+      <c r="F33" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4" t="n">
         <v>4.65</v>
       </c>
-      <c r="H32" s="4" t="n">
+      <c r="H33" s="4" t="n">
         <v>1.86</v>
       </c>
-      <c r="I32" s="5" t="inlineStr">
+      <c r="I33" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr">
+      <c r="J33" s="2" t="inlineStr">
         <is>
           <t>REDUCIR 19%</t>
         </is>
       </c>
-      <c r="K32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="inlineStr">
+      <c r="K33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
         </is>
       </c>
-      <c r="P32" s="3" t="n">
+      <c r="P33" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="Q32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
+      <c r="Q33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>5404010003</t>
         </is>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>ALBAHACA HOJA DE LECHUGA 2011</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>         </t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr">
+      <c r="D34" s="2" t="inlineStr">
         <is>
           <t>        </t>
         </is>
       </c>
-      <c r="E33" s="2" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr">
         <is>
           <t>semillas</t>
         </is>
       </c>
-      <c r="F33" s="3" t="n">
+      <c r="F34" s="3" t="n">
         <v>6</v>
-      </c>
-      <c r="G33" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H33" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I33" s="5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>AUMENTAR 19%</t>
-        </is>
-      </c>
-      <c r="K33" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="6" t="n">
-        <v>14</v>
-      </c>
-      <c r="N33" s="4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="O33" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
-        </is>
-      </c>
-      <c r="P33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="R33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" s="8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" hidden="1">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>5404010008</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>CILANTRO</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>         </t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr">
-        <is>
-          <t>        </t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>semillas</t>
-        </is>
-      </c>
-      <c r="F34" s="3" t="n">
-        <v>1</v>
       </c>
       <c r="G34" s="4" t="n">
         <v>2</v>
@@ -3226,25 +3226,25 @@
       </c>
       <c r="I34" s="5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 19%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K34" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N34" s="4" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="O34" s="7" t="inlineStr">
         <is>
@@ -3252,33 +3252,33 @@
         </is>
       </c>
       <c r="P34" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" hidden="1">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>5404010013</t>
+          <t>5404010008</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>MANZANILLA</t>
+          <t>CILANTRO</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="P35" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q35" s="3" t="n">
         <v>0</v>
@@ -3354,12 +3354,12 @@
     <row r="36" hidden="1">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>5404010016</t>
+          <t>5404010013</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>OREGANO</t>
+          <t>MANZANILLA</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="F36" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G36" s="4" t="n">
         <v>2</v>
@@ -3388,12 +3388,12 @@
       </c>
       <c r="I36" s="5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 5%</t>
+          <t>REDUCIR 19%</t>
         </is>
       </c>
       <c r="K36" s="3" t="n">
@@ -3414,7 +3414,7 @@
         </is>
       </c>
       <c r="P36" s="3" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="Q36" s="3" t="n">
         <v>0</v>
@@ -3432,15 +3432,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>5404010019</t>
+          <t>5404010016</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>PEREJIL GIGANTE D'ITALIA</t>
+          <t>OREGANO</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -3459,7 +3459,7 @@
         </is>
       </c>
       <c r="F37" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G37" s="4" t="n">
         <v>2</v>
@@ -3474,20 +3474,20 @@
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 39%</t>
+          <t>REDUCIR 5%</t>
         </is>
       </c>
       <c r="K37" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M37" s="6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N37" s="4" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="inlineStr">
         <is>
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="P37" s="3" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R37" s="2" t="n">
         <v>0</v>
@@ -3510,18 +3510,18 @@
         <v>1</v>
       </c>
       <c r="U37" s="8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>5404010020</t>
+          <t>5404010019</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>ROMERO COMUN</t>
+          <t>PEREJIL GIGANTE D'ITALIA</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
@@ -3540,7 +3540,7 @@
         </is>
       </c>
       <c r="F38" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G38" s="4" t="n">
         <v>2</v>
@@ -3555,20 +3555,20 @@
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>AUMENTAR 39%</t>
         </is>
       </c>
       <c r="K38" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="O38" s="7" t="inlineStr">
         <is>
@@ -3576,33 +3576,33 @@
         </is>
       </c>
       <c r="P38" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" s="8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" hidden="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>5404010026</t>
+          <t>5404010020</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>MANZANILLA ECO</t>
+          <t>ROMERO COMUN</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="F39" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="4" t="n">
         <v>2</v>
@@ -3631,191 +3631,272 @@
       </c>
       <c r="I39" s="5" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>AUMENTAR 19%</t>
+        </is>
+      </c>
+      <c r="K39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
+        </is>
+      </c>
+      <c r="P39" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" hidden="1">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>5404010026</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>MANZANILLA ECO</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>semillas</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I40" s="5" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr">
+      <c r="J40" s="2" t="inlineStr">
         <is>
           <t>REDUCIR 19%</t>
         </is>
       </c>
-      <c r="K39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" s="7" t="inlineStr">
+      <c r="K40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
         </is>
       </c>
-      <c r="P39" s="3" t="n">
+      <c r="P40" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="Q39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40"/>
-    <row r="41">
-      <c r="B41" s="9" t="inlineStr">
+      <c r="Q40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41"/>
+    <row r="42">
+      <c r="B42" s="9" t="inlineStr">
         <is>
           <t>METRICAS DE RESUMEN</t>
         </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="10" t="inlineStr">
-        <is>
-          <t>Total_Unidades:</t>
-        </is>
-      </c>
-      <c r="C42" s="5" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="10" t="inlineStr">
         <is>
-          <t>Total_Articulos:</t>
+          <t>Total_Unidades:</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="10" t="inlineStr">
         <is>
-          <t>Total_Importe:</t>
-        </is>
-      </c>
-      <c r="C44" s="5" t="inlineStr">
-        <is>
-          <t>144.51€</t>
-        </is>
+          <t>Total_Articulos:</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="10" t="inlineStr">
         <is>
-          <t>Objetivo_Semana:</t>
+          <t>Total_Importe:</t>
         </is>
       </c>
       <c r="C45" s="5" t="inlineStr">
         <is>
-          <t>241.55€</t>
+          <t>144.50€</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="10" t="inlineStr">
         <is>
-          <t>Factor_Crecimiento:</t>
+          <t>Objetivo_Semana:</t>
         </is>
       </c>
       <c r="C46" s="5" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>241.55€</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="10" t="inlineStr">
         <is>
-          <t>Factor_Festivo:</t>
+          <t>Factor_Crecimiento:</t>
         </is>
       </c>
       <c r="C47" s="5" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>5%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="10" t="inlineStr">
         <is>
-          <t>Articulos_A:</t>
-        </is>
-      </c>
-      <c r="C48" s="5" t="n">
-        <v>22</v>
+          <t>Factor_Festivo:</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="10" t="inlineStr">
         <is>
-          <t>Articulos_B:</t>
+          <t>Articulos_A:</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="10" t="inlineStr">
         <is>
-          <t>Articulos_C:</t>
+          <t>Articulos_B:</t>
         </is>
       </c>
       <c r="C50" s="5" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="10" t="inlineStr">
         <is>
-          <t>Stock_Minimo_%:</t>
-        </is>
-      </c>
-      <c r="C51" s="5" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+          <t>Articulos_C:</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="10" t="inlineStr">
         <is>
-          <t>Stock_Minimo_Objetivo:</t>
-        </is>
-      </c>
-      <c r="C52" s="5" t="n">
-        <v>45</v>
+          <t>Stock_Minimo_%:</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="10" t="inlineStr">
         <is>
+          <t>Stock_Minimo_Objetivo:</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="10" t="inlineStr">
+        <is>
           <t>Total_Ajuste_Stock:</t>
         </is>
       </c>
-      <c r="C53" s="5" t="n">
-        <v>-1</v>
+      <c r="C54" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0" footer="0"/>
   <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1"/>
